--- a/plots/countries/plot data/Malta.xlsx
+++ b/plots/countries/plot data/Malta.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108478255568091</v>
+        <v>0.108606176555948</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.266011395981729</v>
+        <v>0.266011300341463</v>
       </c>
     </row>
     <row r="4">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.35109086823081</v>
+        <v>0.351293912033136</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00750387927373164</v>
+        <v>0.00750154349889725</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00990628091733508</v>
+        <v>-0.00990501775066842</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0752166837337236</v>
+        <v>0.075216683733723</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.111302850836711</v>
+        <v>0.11130853312265</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.24754680517784</v>
+        <v>0.247546704316031</v>
       </c>
     </row>
     <row r="13">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>0.371501582299728</v>
+        <v>0.371718759779047</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00772852103443441</v>
+        <v>0.00772596291981165</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0150578799474349</v>
+        <v>-0.0150566167807682</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0821333105698022</v>
+        <v>0.0821333105698015</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113781987830892</v>
+        <v>0.113823199352586</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>0.299856605030268</v>
+        <v>0.299856476798326</v>
       </c>
     </row>
     <row r="22">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>0.396113826870982</v>
+        <v>0.39636233711301</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00878150100738039</v>
+        <v>0.0087789242763243</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0111232233812307</v>
+        <v>-0.0111219602145641</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0888687871871869</v>
+        <v>0.088868787187186</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.113736412196188</v>
+        <v>0.113619233045287</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.303529926078794</v>
+        <v>0.303529784758926</v>
       </c>
     </row>
     <row r="31">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>0.417460735775555</v>
+        <v>0.417709893354699</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00882054669868159</v>
+        <v>0.00881772949913671</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0106857300654228</v>
+        <v>-0.0106844668987562</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0972655897791802</v>
+        <v>0.0972655897791804</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>0.110691547212158</v>
+        <v>0.110733740626654</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3454659640517</v>
+        <v>0.345465816925561</v>
       </c>
     </row>
     <row r="40">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>0.435887306123251</v>
+        <v>0.436136210027914</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00910904135788474</v>
+        <v>0.00910595914413683</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0100800623960231</v>
+        <v>-0.0100787992293565</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>0.106346944386856</v>
+        <v>0.106346944386857</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>0.107542193105501</v>
+        <v>0.107349443560491</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>0.338979789613786</v>
+        <v>0.338979616042699</v>
       </c>
     </row>
     <row r="49">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>0.450190391408332</v>
+        <v>0.450422972195938</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00906919384538557</v>
+        <v>0.00906584500214832</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.00929504082281679</v>
+        <v>-0.00929377765615012</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>0.110832886552822</v>
+        <v>0.110759765820433</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>0.34255563249163</v>
+        <v>0.34255547021943</v>
       </c>
     </row>
     <row r="58">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>0.47176356637759</v>
+        <v>0.471987031209747</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00886147957163021</v>
+        <v>0.00885813007712959</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.00905497529381762</v>
+        <v>-0.00905371212715095</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>0.119160485197053</v>
+        <v>0.119160485197054</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>0.112608245540269</v>
+        <v>0.112486729279698</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>0.386164981385713</v>
+        <v>0.386164802620223</v>
       </c>
     </row>
     <row r="67">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>0.483607460283737</v>
+        <v>0.483791100553967</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00907584786654361</v>
+        <v>0.00907264058885456</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.00901496922441866</v>
+        <v>-0.00901370605775199</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>0.126467531347562</v>
+        <v>0.126467531347561</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>0.107390745528085</v>
+        <v>0.107273783588981</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>0.342394399884081</v>
+        <v>0.342394222857653</v>
       </c>
     </row>
     <row r="76">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>0.490190106250129</v>
+        <v>0.490336023730265</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00849901724005521</v>
+        <v>0.00849618784279165</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.00849401043337014</v>
+        <v>-0.00849274726670348</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>0.137439467034474</v>
+        <v>0.137439467034473</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>0.110870597909022</v>
+        <v>0.110522089022392</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>0.306037231887313</v>
+        <v>0.306037056365144</v>
       </c>
     </row>
     <row r="85">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>0.498298746162158</v>
+        <v>0.49839875621576</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00789997391805329</v>
+        <v>0.00789729058118202</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.00904216868521005</v>
+        <v>-0.00904090551854338</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143195812582864</v>
+        <v>0.143195812582865</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>0.104964668105516</v>
+        <v>0.104816164010802</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>0.304341290125645</v>
+        <v>0.304341126643639</v>
       </c>
     </row>
     <row r="94">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>0.503493157570883</v>
+        <v>0.503593362222113</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0126380962974178</v>
+        <v>0.0126357365082488</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.00890689287603741</v>
+        <v>-0.00890562970937075</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.153993680936411</v>
+        <v>0.15399368093641</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>0.101352048017931</v>
+        <v>0.1012476200665</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>0.211261220048232</v>
+        <v>0.211261031633745</v>
       </c>
     </row>
     <row r="103">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>0.528457991669923</v>
+        <v>0.528567460443151</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0164323490536867</v>
+        <v>0.0164303402305012</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.00548422362114435</v>
+        <v>-0.00548296045447768</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.161446703637849</v>
+        <v>0.161446703637848</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>0.100515597531717</v>
+        <v>0.100425954540273</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>0.204310118060447</v>
+        <v>0.204309925211388</v>
       </c>
     </row>
     <row r="112">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>0.529963815891871</v>
+        <v>0.530068270261545</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0199578723886475</v>
+        <v>0.0199563199547917</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0203539104498633</v>
+        <v>0.02035517361653</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.168907850266722</v>
+        <v>0.168907850266721</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0970862145962208</v>
+        <v>0.0971177960909559</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>0.210094350282237</v>
+        <v>0.210094160377018</v>
       </c>
     </row>
     <row r="121">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>0.530671680601032</v>
+        <v>0.530768081288752</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0216244368518274</v>
+        <v>0.0216235182637468</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0203805149186444</v>
+        <v>0.0203817780853111</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>0.178516633242028</v>
+        <v>0.178516633242027</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>0.100585270406468</v>
+        <v>0.100813630056889</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>0.215771156076322</v>
+        <v>0.215770959604128</v>
       </c>
     </row>
     <row r="130">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>0.507138433266482</v>
+        <v>0.507217616637409</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0279295986049774</v>
+        <v>0.0279292030839975</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.000532054411754157</v>
+        <v>-0.00053079124508749</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>0.187802171997654</v>
+        <v>0.187802171997653</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0912150047170147</v>
+        <v>0.0911988433194789</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124653277944731</v>
+        <v>0.124653895525661</v>
       </c>
     </row>
     <row r="139">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>0.529913497270272</v>
+        <v>0.530005621372108</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0416162718948828</v>
+        <v>0.0416131722935989</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.0000283466194689505</v>
+        <v>-0.0000270834528022838</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>0.196734434199561</v>
+        <v>0.19673443419956</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0897611258368429</v>
+        <v>0.0898046576151659</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>0.108324664773872</v>
+        <v>0.108325156582804</v>
       </c>
     </row>
     <row r="148">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>0.533311528869013</v>
+        <v>0.533422895029866</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0764185268620839</v>
+        <v>0.0764132128008319</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.000762416803988386</v>
+        <v>-0.000761153637321728</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.205038776421584</v>
+        <v>0.205038776421586</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0912223981677201</v>
+        <v>0.0911194071062102</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>0.118266282628767</v>
+        <v>0.118266900209697</v>
       </c>
     </row>
     <row r="157">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>0.549246467346051</v>
+        <v>0.549366000174823</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0886900642375318</v>
+        <v>0.0886830090065709</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.000057732490826118</v>
+        <v>-0.0000564693241594456</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2089110803044</v>
+        <v>0.208911080304401</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0888884036074918</v>
+        <v>0.088452191946385</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.121225821254262</v>
+        <v>0.121226438835193</v>
       </c>
     </row>
     <row r="166">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>0.547383440860108</v>
+        <v>0.547524154920378</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>0.102953953472967</v>
+        <v>0.102947639910459</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0138621777961006</v>
+        <v>0.0138634409627673</v>
       </c>
     </row>
     <row r="172">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0859385385774142</v>
+        <v>0.0856882039054518</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>0.108309978170819</v>
+        <v>0.108310469979751</v>
       </c>
     </row>
     <row r="175">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>0.532553242904614</v>
+        <v>0.532741346611111</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>0.117963159704173</v>
+        <v>0.11795832165044</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0137538374233082</v>
+        <v>0.0137551005899749</v>
       </c>
     </row>
     <row r="181">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0849846085134342</v>
+        <v>0.0846883197449159</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>0.134490070416064</v>
+        <v>0.134490687996994</v>
       </c>
     </row>
     <row r="184">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>0.578676566810062</v>
+        <v>0.578843891338355</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.129026014120364</v>
+        <v>0.129019731980833</v>
       </c>
     </row>
     <row r="189">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.123277373361445</v>
+        <v>0.123277373361444</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0824000975688651</v>
+        <v>0.0822918187992282</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>0.100619279254662</v>
+        <v>0.100619771063594</v>
       </c>
     </row>
     <row r="193">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>0.562307020712602</v>
+        <v>0.562554775937894</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.154274663377082</v>
+        <v>0.154271913892978</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>0.000672372700139739</v>
+        <v>0.000672372700139738</v>
       </c>
     </row>
     <row r="199">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0840946933138388</v>
+        <v>0.0839850380248538</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>0.128500760214745</v>
+        <v>0.128501126251676</v>
       </c>
     </row>
     <row r="202">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>2.05713716382565</v>
+        <v>2.0571371638257</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>0.542304908193936</v>
+        <v>0.542637728332476</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.181872777903884</v>
+        <v>0.181868899209075</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>0.000694898135390072</v>
+        <v>0.000694898135390065</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.120989961871043</v>
+        <v>0.120981789938354</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0841728055018752</v>
+        <v>0.0842355466765363</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>0.138122617494218</v>
+        <v>0.138122857759151</v>
       </c>
     </row>
     <row r="211">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>1.6950854545927</v>
+        <v>1.69508545459281</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>0.542275743875194</v>
+        <v>0.542634665898645</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>0.200933545717769</v>
+        <v>0.200935637257506</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>0.000607983405365997</v>
+        <v>0.000607983405366005</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.120198594035171</v>
+        <v>0.120186592725702</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0843695699825869</v>
+        <v>0.0842229729129387</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>0.145169122896779</v>
+        <v>0.145169363161712</v>
       </c>
     </row>
     <row r="220">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>1.65673058482385</v>
+        <v>1.65673058482374</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>0.552029610937325</v>
+        <v>0.552492300205999</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>0.209006001179883</v>
+        <v>0.208998434956136</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00113316178036573</v>
+        <v>0.00113316178036572</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.135324121631815</v>
+        <v>0.135310324902325</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0845259013336529</v>
+        <v>0.0843377057891466</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>0.165971897517805</v>
+        <v>0.163680335348747</v>
       </c>
     </row>
     <row r="229">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>0.88653845135331</v>
+        <v>0.886538451353364</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>0.58596109121218</v>
+        <v>0.586538865066142</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.21514266149578</v>
+        <v>0.215129510586359</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.00119456505076122</v>
+        <v>0.00119456505076118</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.150607542272966</v>
+        <v>0.150588147917681</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0851100273288662</v>
+        <v>0.0852288149530312</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>0.152099939672797</v>
+        <v>0.152100179937729</v>
       </c>
     </row>
     <row r="238">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>0.578347674674732</v>
+        <v>0.578347674674818</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>0.585522783570366</v>
+        <v>0.586103814314161</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>0.227604706433518</v>
+        <v>0.227610208849179</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>0.000908328347085241</v>
+        <v>0.000908328347085261</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.162679482941381</v>
+        <v>0.162660076357258</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0844568368991775</v>
+        <v>0.0845615849272016</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.154840501358403</v>
+        <v>0.154840389930476</v>
       </c>
     </row>
     <row r="247">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>0.724519010684444</v>
+        <v>0.724519011859611</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>0.606373910231678</v>
+        <v>0.607136484357953</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>0.231757382536937</v>
+        <v>0.231760553543549</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00264622006026463</v>
+        <v>0.00264622006026461</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.160722742982456</v>
+        <v>0.160706285329429</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0831279341722024</v>
+        <v>0.0833097750567055</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>0.137232696093627</v>
+        <v>0.137232696201803</v>
       </c>
     </row>
     <row r="256">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>0.698602476978297</v>
+        <v>0.69860247697363</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>0.660338339147369</v>
+        <v>0.661154658824777</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>0.21794137243233</v>
+        <v>0.217920751719175</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>0.00162765113413318</v>
+        <v>0.00162765113413317</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.168555085143359</v>
+        <v>0.166379816636467</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0837381058419362</v>
+        <v>0.0835426045971994</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>0.149832475111412</v>
+        <v>0.14983247503624</v>
       </c>
     </row>
     <row r="265">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>0.739911944450029</v>
+        <v>0.739911944450076</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>0.700494120395394</v>
+        <v>0.701458815859343</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>0.207243881626057</v>
+        <v>0.207278754167339</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00611980722443312</v>
+        <v>0.00611980722443311</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.184478612937864</v>
+        <v>0.182479010150988</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0865525602440499</v>
+        <v>0.0863049874906048</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>0.132142916056894</v>
+        <v>0.132142916095144</v>
       </c>
     </row>
     <row r="274">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>0.810841521277545</v>
+        <v>0.810841522087782</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>0.579120586152949</v>
+        <v>0.579994329869821</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.213581477613195</v>
+        <v>0.213591400747523</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00854313498617333</v>
+        <v>0.00855611857657334</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.182573721453729</v>
+        <v>0.182115638382033</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0848445501065571</v>
+        <v>0.0863768714362907</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>0.135214410931782</v>
+        <v>0.135214411011993</v>
       </c>
     </row>
     <row r="283">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>0.62062270344576</v>
+        <v>0.621646389041914</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>0.215829833624553</v>
+        <v>0.215927374239395</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>0.000625423968685763</v>
+        <v>0.000640910419885767</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.184205059881165</v>
+        <v>0.183284093276242</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0861990792887076</v>
+        <v>0.0846180479060576</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>0.16244083657364</v>
+        <v>0.1624408365585</v>
       </c>
     </row>
     <row r="292">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>0.797328233095977</v>
+        <v>0.797328233095978</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>0.723165305786231</v>
+        <v>0.724378785784369</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>0.213130964200069</v>
+        <v>0.211802587059213</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>0.000771875252398071</v>
+        <v>0.000789864564398044</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.186094528732058</v>
+        <v>0.185050959328604</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.083502536681478</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.141462847671929</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.064863322959</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.799531638820558</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.765243895309547</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.208300059013354</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.000950844192703307</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.183027104068015</v>
       </c>
     </row>
   </sheetData>
